--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s4_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1857.688282423966</v>
+        <v>1102.108474609721</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3300001621246338</v>
+        <v>0.4029998779296875</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.84392883905826</v>
+        <v>36.66295360775301</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.70109323126045</v>
+        <v>13.2160238063541</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.80544681616626</v>
+        <v>4.661544808322666</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1478.040000000002</v>
+        <v>830</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>354.7</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>12.46902814888768</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.91485850069197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.29890676873956</v>
+        <v>22.19455318383374</v>
       </c>
     </row>
     <row r="7">
@@ -925,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,7 +957,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -980,20 +980,6 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1052,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>103.8560000000001</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
@@ -1063,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>187.7</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="5">
@@ -1074,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>243.9480000000001</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6">
@@ -1085,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>106.3389999999981</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -1096,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>42.06599999999971</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1107,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>243.9480000000001</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
@@ -1118,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>103.8560000000001</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>143.9480000000001</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -1176,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.856000000000066</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="3">
@@ -1234,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6.011</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4">
@@ -1256,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4.272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1267,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>25.187</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,7 +1305,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1330,23 +1316,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
